--- a/tut05/output/0501CS23.xlsx
+++ b/tut05/output/0501CS23.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C6" t="n">
-        <v>9.113636363636363</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.627906976744185</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>8.957446808510639</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9.380952380952381</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.536585365853659</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.836734693877551</v>
+        <v>8.84</v>
       </c>
       <c r="C8" t="n">
-        <v>8.96774193548387</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.176470588235293</v>
+        <v>9.18</v>
       </c>
       <c r="E8" t="n">
-        <v>9.120218579234972</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>9.168888888888889</v>
+        <v>9.17</v>
       </c>
       <c r="G8" t="n">
-        <v>9.249056603773585</v>
+        <v>9.25</v>
       </c>
       <c r="H8" t="n">
-        <v>9.287581699346406</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>9.352601156069364</v>
+        <v>9.35</v>
       </c>
     </row>
   </sheetData>
